--- a/Index Combination/Global Safety and Stability Index.xlsx
+++ b/Index Combination/Global Safety and Stability Index.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.527123619929475</v>
+        <v>0.4596488084497843</v>
       </c>
       <c r="C2" t="n">
-        <v>3.192891908556973</v>
+        <v>0.5776496739210497</v>
       </c>
       <c r="D2" t="n">
-        <v>3.288687327874821</v>
+        <v>0.603670110201359</v>
       </c>
       <c r="E2" t="n">
-        <v>3.084874721627445</v>
+        <v>0.5804356122205385</v>
       </c>
       <c r="F2" t="n">
-        <v>3.116342301311902</v>
+        <v>0.5960096568537214</v>
       </c>
       <c r="G2" t="n">
-        <v>3.134884613766976</v>
+        <v>0.600465417009505</v>
       </c>
       <c r="H2" t="n">
-        <v>3.216712000652431</v>
+        <v>0.6204621011188395</v>
       </c>
       <c r="I2" t="n">
-        <v>3.279847265388625</v>
+        <v>0.6205243724101316</v>
       </c>
       <c r="J2" t="n">
-        <v>3.157767046200862</v>
+        <v>0.6046099198865237</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.645859296723312</v>
+        <v>0.5891042011786592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694968125707565</v>
+        <v>0.6131013679178594</v>
       </c>
       <c r="D3" t="n">
-        <v>3.744826372078013</v>
+        <v>0.6318064403361104</v>
       </c>
       <c r="E3" t="n">
-        <v>3.557961058385236</v>
+        <v>0.6008729204879812</v>
       </c>
       <c r="F3" t="n">
-        <v>3.643795419598311</v>
+        <v>0.6196741707756005</v>
       </c>
       <c r="G3" t="n">
-        <v>3.587080309926143</v>
+        <v>0.6129536920267236</v>
       </c>
       <c r="H3" t="n">
-        <v>3.628612008683703</v>
+        <v>0.6128494761947586</v>
       </c>
       <c r="I3" t="n">
-        <v>3.532972355920611</v>
+        <v>0.6023031336554246</v>
       </c>
       <c r="J3" t="n">
-        <v>3.393185633991625</v>
+        <v>0.576104415701113</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.937682560068962</v>
+        <v>0.5083372427637534</v>
       </c>
       <c r="C4" t="n">
-        <v>3.012022747116337</v>
+        <v>0.5452894080913049</v>
       </c>
       <c r="D4" t="n">
-        <v>2.996586526088496</v>
+        <v>0.5263567863862559</v>
       </c>
       <c r="E4" t="n">
-        <v>3.075432978959982</v>
+        <v>0.5416917246536592</v>
       </c>
       <c r="F4" t="n">
-        <v>3.019898922477594</v>
+        <v>0.5439519092316087</v>
       </c>
       <c r="G4" t="n">
-        <v>3.237523305016377</v>
+        <v>0.5867046436010472</v>
       </c>
       <c r="H4" t="n">
-        <v>2.828011916926722</v>
+        <v>0.5105609087133762</v>
       </c>
       <c r="I4" t="n">
-        <v>2.859186522398184</v>
+        <v>0.5212950588514969</v>
       </c>
       <c r="J4" t="n">
-        <v>3.110497311752354</v>
+        <v>0.5671617383386538</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.612684554181069</v>
+        <v>0.5844974164734543</v>
       </c>
       <c r="C5" t="n">
-        <v>3.51326358757392</v>
+        <v>0.5979842857272144</v>
       </c>
       <c r="D5" t="n">
-        <v>3.422873780106967</v>
+        <v>0.58683888155157</v>
       </c>
       <c r="E5" t="n">
-        <v>3.352941725016653</v>
+        <v>0.5687585300515935</v>
       </c>
       <c r="F5" t="n">
-        <v>3.534576542404141</v>
+        <v>0.6070880159755541</v>
       </c>
       <c r="G5" t="n">
-        <v>3.947161044597574</v>
+        <v>0.6777033882103256</v>
       </c>
       <c r="H5" t="n">
-        <v>3.861596012576034</v>
+        <v>0.6638013556313592</v>
       </c>
       <c r="I5" t="n">
-        <v>4.059281920257327</v>
+        <v>0.7204066358323613</v>
       </c>
       <c r="J5" t="n">
-        <v>3.911543541529408</v>
+        <v>0.6813146045918189</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +628,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.140651921346168</v>
+        <v>0.6465742503110612</v>
       </c>
       <c r="C6" t="n">
-        <v>3.193196707701626</v>
+        <v>0.6666575289932157</v>
       </c>
       <c r="D6" t="n">
-        <v>3.211260372290406</v>
+        <v>0.6637035862474466</v>
       </c>
       <c r="E6" t="n">
-        <v>3.215129029743534</v>
+        <v>0.6639809088627028</v>
       </c>
       <c r="F6" t="n">
-        <v>3.396092356706019</v>
+        <v>0.7007354208692934</v>
       </c>
       <c r="G6" t="n">
-        <v>3.258382039082102</v>
+        <v>0.670860504798838</v>
       </c>
       <c r="H6" t="n">
-        <v>3.212588045421343</v>
+        <v>0.65832696379918</v>
       </c>
       <c r="I6" t="n">
-        <v>3.119161183087004</v>
+        <v>0.6494496346924714</v>
       </c>
       <c r="J6" t="n">
-        <v>3.120295928692101</v>
+        <v>0.6426299666099737</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.260905440709295</v>
+        <v>0.697238160059186</v>
       </c>
       <c r="C7" t="n">
-        <v>3.70235401897605</v>
+        <v>0.7700924046623342</v>
       </c>
       <c r="D7" t="n">
-        <v>3.662927251532387</v>
+        <v>0.7686337511926847</v>
       </c>
       <c r="E7" t="n">
-        <v>3.443808442039105</v>
+        <v>0.7406347403398508</v>
       </c>
       <c r="F7" t="n">
-        <v>3.330271707623588</v>
+        <v>0.7167970837964889</v>
       </c>
       <c r="G7" t="n">
-        <v>3.885870876318785</v>
+        <v>0.8100655282187359</v>
       </c>
       <c r="H7" t="n">
-        <v>3.329155427144987</v>
+        <v>0.7149602479585079</v>
       </c>
       <c r="I7" t="n">
-        <v>3.482479545720713</v>
+        <v>0.7470799242867855</v>
       </c>
       <c r="J7" t="n">
-        <v>3.444895129943383</v>
+        <v>0.7345434535568721</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +696,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.573312027186218</v>
+        <v>0.547313672120042</v>
       </c>
       <c r="C8" t="n">
-        <v>3.691595245179264</v>
+        <v>0.584250195941602</v>
       </c>
       <c r="D8" t="n">
-        <v>3.431279353918128</v>
+        <v>0.5360925712562933</v>
       </c>
       <c r="E8" t="n">
-        <v>3.62309848477934</v>
+        <v>0.5723321044347888</v>
       </c>
       <c r="F8" t="n">
-        <v>3.742719477232332</v>
+        <v>0.594385140184676</v>
       </c>
       <c r="G8" t="n">
-        <v>3.565227820127987</v>
+        <v>0.5800775747902354</v>
       </c>
       <c r="H8" t="n">
-        <v>3.597332944152886</v>
+        <v>0.580026871163528</v>
       </c>
       <c r="I8" t="n">
-        <v>3.482022812139686</v>
+        <v>0.6005035307264823</v>
       </c>
       <c r="J8" t="n">
-        <v>3.766423224811084</v>
+        <v>0.5927909675760408</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.375804910350468</v>
+        <v>0.5708429692864134</v>
       </c>
       <c r="C9" t="n">
-        <v>3.608746009843574</v>
+        <v>0.617476754878496</v>
       </c>
       <c r="D9" t="n">
-        <v>3.517641410703586</v>
+        <v>0.5934310326632767</v>
       </c>
       <c r="E9" t="n">
-        <v>3.587427837791715</v>
+        <v>0.603214677316091</v>
       </c>
       <c r="F9" t="n">
-        <v>3.48976418187235</v>
+        <v>0.5832949079669644</v>
       </c>
       <c r="G9" t="n">
-        <v>3.435891599567888</v>
+        <v>0.576323269207746</v>
       </c>
       <c r="H9" t="n">
-        <v>3.580702092581401</v>
+        <v>0.6008240861373042</v>
       </c>
       <c r="I9" t="n">
-        <v>4.403130845855152</v>
+        <v>0.7489573294367017</v>
       </c>
       <c r="J9" t="n">
-        <v>4.355864244626358</v>
+        <v>0.7462282701617404</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.715629480305214</v>
+        <v>0.6164123289901791</v>
       </c>
       <c r="C10" t="n">
-        <v>3.696639214456228</v>
+        <v>0.6220710892532705</v>
       </c>
       <c r="D10" t="n">
-        <v>3.713169226739612</v>
+        <v>0.619031953604523</v>
       </c>
       <c r="E10" t="n">
-        <v>3.703995467463047</v>
+        <v>0.6373736878796752</v>
       </c>
       <c r="F10" t="n">
-        <v>3.835121770466733</v>
+        <v>0.6698171179670288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.680359274125811</v>
+        <v>0.6389525786779993</v>
       </c>
       <c r="H10" t="n">
-        <v>3.866060200690883</v>
+        <v>0.6738046462430933</v>
       </c>
       <c r="I10" t="n">
-        <v>3.912061282925491</v>
+        <v>0.6830284811386942</v>
       </c>
       <c r="J10" t="n">
-        <v>3.177649543630422</v>
+        <v>0.526024027881056</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +798,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.626699324984361</v>
+        <v>0.7207568419338444</v>
       </c>
       <c r="C11" t="n">
-        <v>3.699640566290279</v>
+        <v>0.738965315922272</v>
       </c>
       <c r="D11" t="n">
-        <v>3.716384402786419</v>
+        <v>0.7390293023048939</v>
       </c>
       <c r="E11" t="n">
-        <v>3.698092152221683</v>
+        <v>0.7425905556888828</v>
       </c>
       <c r="F11" t="n">
-        <v>3.576541336708836</v>
+        <v>0.7034274177997261</v>
       </c>
       <c r="G11" t="n">
-        <v>3.762402598425268</v>
+        <v>0.7435949455647536</v>
       </c>
       <c r="H11" t="n">
-        <v>3.774373930138498</v>
+        <v>0.7379848806123086</v>
       </c>
       <c r="I11" t="n">
-        <v>3.708109204788853</v>
+        <v>0.7287977269330671</v>
       </c>
       <c r="J11" t="n">
-        <v>3.673448629413775</v>
+        <v>0.7328507572320448</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.047919115020117</v>
+        <v>0.5947786239477357</v>
       </c>
       <c r="C12" t="n">
-        <v>3.097664870940797</v>
+        <v>0.6120511662883605</v>
       </c>
       <c r="D12" t="n">
-        <v>3.158953667349429</v>
+        <v>0.6198801442855729</v>
       </c>
       <c r="E12" t="n">
-        <v>3.241858891182686</v>
+        <v>0.6381172835081798</v>
       </c>
       <c r="F12" t="n">
-        <v>2.989033995270959</v>
+        <v>0.6035786867666799</v>
       </c>
       <c r="G12" t="n">
-        <v>3.001719521030166</v>
+        <v>0.6027690300851355</v>
       </c>
       <c r="H12" t="n">
-        <v>3.067536967986145</v>
+        <v>0.6139497640246268</v>
       </c>
       <c r="I12" t="n">
-        <v>2.907367937361182</v>
+        <v>0.5910001002492908</v>
       </c>
       <c r="J12" t="n">
-        <v>2.881245837863363</v>
+        <v>0.6008169586403096</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +866,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.889506496097311</v>
+        <v>0.6106196493679987</v>
       </c>
       <c r="C13" t="n">
-        <v>2.887144130923367</v>
+        <v>0.6219541513365803</v>
       </c>
       <c r="D13" t="n">
-        <v>2.893885852469164</v>
+        <v>0.625634008813027</v>
       </c>
       <c r="E13" t="n">
-        <v>2.775944218738351</v>
+        <v>0.6113384249456004</v>
       </c>
       <c r="F13" t="n">
-        <v>2.805289580749905</v>
+        <v>0.6184171418153475</v>
       </c>
       <c r="G13" t="n">
-        <v>2.783577528426931</v>
+        <v>0.6054451850007648</v>
       </c>
       <c r="H13" t="n">
-        <v>2.828335772067728</v>
+        <v>0.6084263323816583</v>
       </c>
       <c r="I13" t="n">
-        <v>2.763881726975592</v>
+        <v>0.6003648058252863</v>
       </c>
       <c r="J13" t="n">
-        <v>2.690083716176897</v>
+        <v>0.5908204043090528</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.5145122174259</v>
+        <v>0.6705149951013283</v>
       </c>
       <c r="C14" t="n">
-        <v>3.43253125401997</v>
+        <v>0.66922555665159</v>
       </c>
       <c r="D14" t="n">
-        <v>3.526904978996366</v>
+        <v>0.6793307889329321</v>
       </c>
       <c r="E14" t="n">
-        <v>3.638820056279329</v>
+        <v>0.7114717222952701</v>
       </c>
       <c r="F14" t="n">
-        <v>3.510709270429189</v>
+        <v>0.6970192122647909</v>
       </c>
       <c r="G14" t="n">
-        <v>3.50779082664051</v>
+        <v>0.6784583600500801</v>
       </c>
       <c r="H14" t="n">
-        <v>3.446630312603086</v>
+        <v>0.6661892271846894</v>
       </c>
       <c r="I14" t="n">
-        <v>3.140542376045262</v>
+        <v>0.5983920780476956</v>
       </c>
       <c r="J14" t="n">
-        <v>3.427609764199093</v>
+        <v>0.6483292259328235</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.103609376437169</v>
+        <v>0.5251081113467962</v>
       </c>
       <c r="C15" t="n">
-        <v>3.109797712948895</v>
+        <v>0.5356820319127504</v>
       </c>
       <c r="D15" t="n">
-        <v>2.858039346336909</v>
+        <v>0.4875873348189327</v>
       </c>
       <c r="E15" t="n">
-        <v>2.874800186642153</v>
+        <v>0.4935218536489919</v>
       </c>
       <c r="F15" t="n">
-        <v>3.008801801239676</v>
+        <v>0.521214202260325</v>
       </c>
       <c r="G15" t="n">
-        <v>2.931383925867904</v>
+        <v>0.518532957104066</v>
       </c>
       <c r="H15" t="n">
-        <v>2.824574245734564</v>
+        <v>0.5091462126729324</v>
       </c>
       <c r="I15" t="n">
-        <v>3.081908010779685</v>
+        <v>0.5575109842527541</v>
       </c>
       <c r="J15" t="n">
-        <v>2.78020890041527</v>
+        <v>0.4979559636892833</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +968,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.137407315640869</v>
+        <v>0.4152642519242805</v>
       </c>
       <c r="C16" t="n">
-        <v>3.037027126680575</v>
+        <v>0.4107383316110433</v>
       </c>
       <c r="D16" t="n">
-        <v>3.135014730939064</v>
+        <v>0.4195713031456041</v>
       </c>
       <c r="E16" t="n">
-        <v>3.207761828392594</v>
+        <v>0.448124744608769</v>
       </c>
       <c r="F16" t="n">
-        <v>3.213300412368223</v>
+        <v>0.4308458384313898</v>
       </c>
       <c r="G16" t="n">
-        <v>3.208896133724537</v>
+        <v>0.4382130498882723</v>
       </c>
       <c r="H16" t="n">
-        <v>3.125171625844507</v>
+        <v>0.4185050352838487</v>
       </c>
       <c r="I16" t="n">
-        <v>3.091781081274584</v>
+        <v>0.405240778874033</v>
       </c>
       <c r="J16" t="n">
-        <v>2.954688716835512</v>
+        <v>0.3747061839887142</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.389459412251351</v>
+        <v>0.6670128350800766</v>
       </c>
       <c r="C17" t="n">
-        <v>3.626007596747433</v>
+        <v>0.7122078100918522</v>
       </c>
       <c r="D17" t="n">
-        <v>3.547495683679582</v>
+        <v>0.6950325116971082</v>
       </c>
       <c r="E17" t="n">
-        <v>3.697986431882195</v>
+        <v>0.7297260702674503</v>
       </c>
       <c r="F17" t="n">
-        <v>3.792361000447967</v>
+        <v>0.7446632911927934</v>
       </c>
       <c r="G17" t="n">
-        <v>3.754769732151709</v>
+        <v>0.7353000998956098</v>
       </c>
       <c r="H17" t="n">
-        <v>3.803514514231906</v>
+        <v>0.7414948432810751</v>
       </c>
       <c r="I17" t="n">
-        <v>3.797663529168438</v>
+        <v>0.7529475388187223</v>
       </c>
       <c r="J17" t="n">
-        <v>3.779597960122608</v>
+        <v>0.7675674019559184</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +1036,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.30092836537547</v>
+        <v>0.7497488983797709</v>
       </c>
       <c r="C18" t="n">
-        <v>3.906190246724783</v>
+        <v>0.674037842756789</v>
       </c>
       <c r="D18" t="n">
-        <v>3.721805064147548</v>
+        <v>0.6632456293006651</v>
       </c>
       <c r="E18" t="n">
-        <v>3.918257784870815</v>
+        <v>0.6950093910036489</v>
       </c>
       <c r="F18" t="n">
-        <v>4.138295763971168</v>
+        <v>0.7363194361752894</v>
       </c>
       <c r="G18" t="n">
-        <v>3.263569931019727</v>
+        <v>0.6028046896301864</v>
       </c>
       <c r="H18" t="n">
-        <v>3.546332910421789</v>
+        <v>0.6435807375955507</v>
       </c>
       <c r="I18" t="n">
-        <v>3.691962910354871</v>
+        <v>0.6581016136538278</v>
       </c>
       <c r="J18" t="n">
-        <v>3.795997104216455</v>
+        <v>0.6771106284805202</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.43264587647017</v>
+        <v>0.7387743127450284</v>
       </c>
       <c r="C19" t="n">
-        <v>3.389809241782884</v>
+        <v>0.7316348736304805</v>
       </c>
       <c r="D19" t="n">
-        <v>3.574407149754802</v>
+        <v>0.7624011916258002</v>
       </c>
       <c r="E19" t="n">
-        <v>3.459658485020351</v>
+        <v>0.7388228341769101</v>
       </c>
       <c r="F19" t="n">
-        <v>3.53824773805246</v>
+        <v>0.7456672331544341</v>
       </c>
       <c r="G19" t="n">
-        <v>3.567678505665834</v>
+        <v>0.7442946129400592</v>
       </c>
       <c r="H19" t="n">
-        <v>3.487188905459392</v>
+        <v>0.7313665010782486</v>
       </c>
       <c r="I19" t="n">
-        <v>3.941305421036633</v>
+        <v>0.8101669281036818</v>
       </c>
       <c r="J19" t="n">
-        <v>3.978787100179964</v>
+        <v>0.8233462371267681</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1104,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.474701500119556</v>
+        <v>0.4016588831134511</v>
       </c>
       <c r="C20" t="n">
-        <v>2.404298014902307</v>
+        <v>0.3993530093003504</v>
       </c>
       <c r="D20" t="n">
-        <v>2.658747147167357</v>
+        <v>0.4455103459321192</v>
       </c>
       <c r="E20" t="n">
-        <v>2.509239519564002</v>
+        <v>0.4248869565837229</v>
       </c>
       <c r="F20" t="n">
-        <v>2.571818375461065</v>
+        <v>0.4385538963490049</v>
       </c>
       <c r="G20" t="n">
-        <v>2.645715857310416</v>
+        <v>0.4616124501690804</v>
       </c>
       <c r="H20" t="n">
-        <v>2.635560519365525</v>
+        <v>0.4594621067629409</v>
       </c>
       <c r="I20" t="n">
-        <v>2.335999030834016</v>
+        <v>0.4169150130066098</v>
       </c>
       <c r="J20" t="n">
-        <v>2.514904262938614</v>
+        <v>0.4494374488410234</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.490475062902039</v>
+        <v>0.416278217917726</v>
       </c>
       <c r="C21" t="n">
-        <v>2.496054669861631</v>
+        <v>0.4367998410232916</v>
       </c>
       <c r="D21" t="n">
-        <v>2.618162313607106</v>
+        <v>0.4626044210476737</v>
       </c>
       <c r="E21" t="n">
-        <v>2.68986095446307</v>
+        <v>0.4861655890189391</v>
       </c>
       <c r="F21" t="n">
-        <v>2.670614921022951</v>
+        <v>0.509083529491187</v>
       </c>
       <c r="G21" t="n">
-        <v>2.687805842482976</v>
+        <v>0.5052108218608324</v>
       </c>
       <c r="H21" t="n">
-        <v>2.746911674690188</v>
+        <v>0.4958657504955027</v>
       </c>
       <c r="I21" t="n">
-        <v>2.76130650474819</v>
+        <v>0.4783946363041159</v>
       </c>
       <c r="J21" t="n">
-        <v>2.498508280254092</v>
+        <v>0.4434789786086569</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.460401243219128</v>
+        <v>0.5441749720067297</v>
       </c>
       <c r="C22" t="n">
-        <v>3.571554661062005</v>
+        <v>0.5463497713903613</v>
       </c>
       <c r="D22" t="n">
-        <v>3.292116232604004</v>
+        <v>0.5299402991626986</v>
       </c>
       <c r="E22" t="n">
-        <v>3.247761220214107</v>
+        <v>0.5066926459863526</v>
       </c>
       <c r="F22" t="n">
-        <v>3.182125723325679</v>
+        <v>0.5100804588902461</v>
       </c>
       <c r="G22" t="n">
-        <v>3.138668877229736</v>
+        <v>0.4973887945799357</v>
       </c>
       <c r="H22" t="n">
-        <v>3.173658416235472</v>
+        <v>0.509246099675609</v>
       </c>
       <c r="I22" t="n">
-        <v>3.321631923349268</v>
+        <v>0.5189697625911286</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2949880357786</v>
+        <v>0.5138600131315587</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.259203847138525</v>
+        <v>0.7844845371499091</v>
       </c>
       <c r="C23" t="n">
-        <v>4.032476503692122</v>
+        <v>0.7700685106698867</v>
       </c>
       <c r="D23" t="n">
-        <v>4.052888700176798</v>
+        <v>0.7632455945420769</v>
       </c>
       <c r="E23" t="n">
-        <v>4.209732473926877</v>
+        <v>0.79840179806969</v>
       </c>
       <c r="F23" t="n">
-        <v>4.250424381896366</v>
+        <v>0.810650860208987</v>
       </c>
       <c r="G23" t="n">
-        <v>4.234641621982329</v>
+        <v>0.8071128164679023</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275380556391138</v>
+        <v>0.814078577580341</v>
       </c>
       <c r="I23" t="n">
-        <v>3.981342169394626</v>
+        <v>0.7638464114843819</v>
       </c>
       <c r="J23" t="n">
-        <v>4.214449237111293</v>
+        <v>0.8135193172963266</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1240,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.796935315529835</v>
+        <v>0.7675762880614657</v>
       </c>
       <c r="C24" t="n">
-        <v>3.950352718074989</v>
+        <v>0.7981330876409917</v>
       </c>
       <c r="D24" t="n">
-        <v>3.981865265944172</v>
+        <v>0.7998064468461826</v>
       </c>
       <c r="E24" t="n">
-        <v>3.909737471063259</v>
+        <v>0.7931097223954352</v>
       </c>
       <c r="F24" t="n">
-        <v>3.966975456662746</v>
+        <v>0.7932496394771416</v>
       </c>
       <c r="G24" t="n">
-        <v>3.681352409658056</v>
+        <v>0.742172159734778</v>
       </c>
       <c r="H24" t="n">
-        <v>3.897809600344347</v>
+        <v>0.7853251690809601</v>
       </c>
       <c r="I24" t="n">
-        <v>3.897625841282728</v>
+        <v>0.7875135128851571</v>
       </c>
       <c r="J24" t="n">
-        <v>3.985766220899554</v>
+        <v>0.8058714310818252</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1274,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.475914100108279</v>
+        <v>0.6360428683725936</v>
       </c>
       <c r="C25" t="n">
-        <v>3.546507207797561</v>
+        <v>0.6500484064802343</v>
       </c>
       <c r="D25" t="n">
-        <v>3.393970802766617</v>
+        <v>0.6239440090500599</v>
       </c>
       <c r="E25" t="n">
-        <v>3.564201088532505</v>
+        <v>0.6320602362353762</v>
       </c>
       <c r="F25" t="n">
-        <v>3.613643732244952</v>
+        <v>0.6327285806155137</v>
       </c>
       <c r="G25" t="n">
-        <v>3.319547029664233</v>
+        <v>0.6002119457410338</v>
       </c>
       <c r="H25" t="n">
-        <v>3.329526623729306</v>
+        <v>0.5944833935171737</v>
       </c>
       <c r="I25" t="n">
-        <v>3.358227507335497</v>
+        <v>0.5901802582762995</v>
       </c>
       <c r="J25" t="n">
-        <v>3.354726383507764</v>
+        <v>0.6030278739538029</v>
       </c>
     </row>
     <row r="26">
@@ -1308,31 +1308,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.153943963853136</v>
+        <v>0.6385516272535154</v>
       </c>
       <c r="C26" t="n">
-        <v>3.518273340647418</v>
+        <v>0.5817776631140381</v>
       </c>
       <c r="D26" t="n">
-        <v>3.994159954056766</v>
+        <v>0.6796674224723104</v>
       </c>
       <c r="E26" t="n">
-        <v>4.096254133496325</v>
+        <v>0.6998381760691886</v>
       </c>
       <c r="F26" t="n">
-        <v>4.116872400977199</v>
+        <v>0.7046639186813849</v>
       </c>
       <c r="G26" t="n">
-        <v>3.996934512967726</v>
+        <v>0.7085369378545752</v>
       </c>
       <c r="H26" t="n">
-        <v>3.963929199620264</v>
+        <v>0.6854023413508521</v>
       </c>
       <c r="I26" t="n">
-        <v>3.812272936432642</v>
+        <v>0.6586199151605499</v>
       </c>
       <c r="J26" t="n">
-        <v>3.766345035699465</v>
+        <v>0.6535306242294807</v>
       </c>
     </row>
     <row r="27">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.26080517834106</v>
+        <v>0.6533181107971126</v>
       </c>
       <c r="C27" t="n">
-        <v>3.397993699507116</v>
+        <v>0.6799996315811111</v>
       </c>
       <c r="D27" t="n">
-        <v>3.321643541004408</v>
+        <v>0.6723870796016208</v>
       </c>
       <c r="E27" t="n">
-        <v>3.15952282775093</v>
+        <v>0.6437505500859291</v>
       </c>
       <c r="F27" t="n">
-        <v>3.233988537375031</v>
+        <v>0.6501969661642253</v>
       </c>
       <c r="G27" t="n">
-        <v>3.125046205901801</v>
+        <v>0.6311627720272395</v>
       </c>
       <c r="H27" t="n">
-        <v>3.317697727294993</v>
+        <v>0.6610304292966402</v>
       </c>
       <c r="I27" t="n">
-        <v>3.226575179259746</v>
+        <v>0.6451056298947107</v>
       </c>
       <c r="J27" t="n">
-        <v>3.121523277928537</v>
+        <v>0.6449850624504549</v>
       </c>
     </row>
     <row r="28">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.700460598155114</v>
+        <v>0.6249522505871877</v>
       </c>
       <c r="C28" t="n">
-        <v>3.938167412462619</v>
+        <v>0.6773223806047104</v>
       </c>
       <c r="D28" t="n">
-        <v>3.882574154957124</v>
+        <v>0.692426299173154</v>
       </c>
       <c r="E28" t="n">
-        <v>3.993880185106277</v>
+        <v>0.7139509112895526</v>
       </c>
       <c r="F28" t="n">
-        <v>3.882081622175191</v>
+        <v>0.6955479200026933</v>
       </c>
       <c r="G28" t="n">
-        <v>3.924065183269481</v>
+        <v>0.69916846636069</v>
       </c>
       <c r="H28" t="n">
-        <v>3.927646697178892</v>
+        <v>0.7062912845466502</v>
       </c>
       <c r="I28" t="n">
-        <v>3.945585401315781</v>
+        <v>0.7162881076709156</v>
       </c>
       <c r="J28" t="n">
-        <v>3.910757356895831</v>
+        <v>0.7111118892317425</v>
       </c>
     </row>
     <row r="29">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.196162183801849</v>
+        <v>0.3476724835021159</v>
       </c>
       <c r="C29" t="n">
-        <v>2.131239528105257</v>
+        <v>0.3536728456862545</v>
       </c>
       <c r="D29" t="n">
-        <v>2.088056822373334</v>
+        <v>0.3493727969122564</v>
       </c>
       <c r="E29" t="n">
-        <v>2.412234772301378</v>
+        <v>0.3912477618104214</v>
       </c>
       <c r="F29" t="n">
-        <v>2.478483137540468</v>
+        <v>0.4107108546769658</v>
       </c>
       <c r="G29" t="n">
-        <v>2.485000318838285</v>
+        <v>0.4215977176832385</v>
       </c>
       <c r="H29" t="n">
-        <v>2.625355485589685</v>
+        <v>0.4215659816050149</v>
       </c>
       <c r="I29" t="n">
-        <v>2.735206233561583</v>
+        <v>0.4398611944704283</v>
       </c>
       <c r="J29" t="n">
-        <v>2.583471598747197</v>
+        <v>0.4137327216549987</v>
       </c>
     </row>
     <row r="30">
@@ -1444,31 +1444,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.549064366680541</v>
+        <v>0.229308182124307</v>
       </c>
       <c r="C30" t="n">
-        <v>1.518240588648748</v>
+        <v>0.2407701594578179</v>
       </c>
       <c r="D30" t="n">
-        <v>1.391810014199886</v>
+        <v>0.2241292082289518</v>
       </c>
       <c r="E30" t="n">
-        <v>1.28061440127975</v>
+        <v>0.2082969874006846</v>
       </c>
       <c r="F30" t="n">
-        <v>1.31198527003205</v>
+        <v>0.2219115348245447</v>
       </c>
       <c r="G30" t="n">
-        <v>1.295514925012818</v>
+        <v>0.2122444848890381</v>
       </c>
       <c r="H30" t="n">
-        <v>1.322087435642918</v>
+        <v>0.1962738318664121</v>
       </c>
       <c r="I30" t="n">
-        <v>1.308731992141662</v>
+        <v>0.1813160663336121</v>
       </c>
       <c r="J30" t="n">
-        <v>1.341078944451312</v>
+        <v>0.1817568850071181</v>
       </c>
     </row>
     <row r="31">
@@ -1478,31 +1478,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.012274928040911</v>
+        <v>0.6157702264314634</v>
       </c>
       <c r="C31" t="n">
-        <v>3.160789109926185</v>
+        <v>0.6486454924178271</v>
       </c>
       <c r="D31" t="n">
-        <v>2.810453917690277</v>
+        <v>0.5766230285448348</v>
       </c>
       <c r="E31" t="n">
-        <v>3.14294376072856</v>
+        <v>0.6420151214780558</v>
       </c>
       <c r="F31" t="n">
-        <v>2.889339517466689</v>
+        <v>0.5901224981278955</v>
       </c>
       <c r="G31" t="n">
-        <v>3.260711185258969</v>
+        <v>0.6495273174190392</v>
       </c>
       <c r="H31" t="n">
-        <v>3.261999058813963</v>
+        <v>0.6488853650211823</v>
       </c>
       <c r="I31" t="n">
-        <v>2.876685663513999</v>
+        <v>0.5969191244218031</v>
       </c>
       <c r="J31" t="n">
-        <v>2.879410617468008</v>
+        <v>0.6182530240582881</v>
       </c>
     </row>
     <row r="32">
@@ -1512,31 +1512,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.904165161420058</v>
+        <v>0.4280415464569309</v>
       </c>
       <c r="C32" t="n">
-        <v>3.011706836383759</v>
+        <v>0.4619034229692086</v>
       </c>
       <c r="D32" t="n">
-        <v>3.022116591719995</v>
+        <v>0.4651721245232029</v>
       </c>
       <c r="E32" t="n">
-        <v>3.10069438177809</v>
+        <v>0.4820102147088183</v>
       </c>
       <c r="F32" t="n">
-        <v>3.188641058268768</v>
+        <v>0.5037940468362636</v>
       </c>
       <c r="G32" t="n">
-        <v>3.06443921009244</v>
+        <v>0.4949796201044154</v>
       </c>
       <c r="H32" t="n">
-        <v>3.121525962290161</v>
+        <v>0.4756415324355655</v>
       </c>
       <c r="I32" t="n">
-        <v>3.053821427581406</v>
+        <v>0.4555247685867725</v>
       </c>
       <c r="J32" t="n">
-        <v>2.883981978913326</v>
+        <v>0.4317389319694254</v>
       </c>
     </row>
     <row r="33">
@@ -1546,31 +1546,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.566433064866556</v>
+        <v>0.5195115798020538</v>
       </c>
       <c r="C33" t="n">
-        <v>2.778747892434656</v>
+        <v>0.5420271708931652</v>
       </c>
       <c r="D33" t="n">
-        <v>2.797700977589652</v>
+        <v>0.5560926305526038</v>
       </c>
       <c r="E33" t="n">
-        <v>2.748885560015497</v>
+        <v>0.550131149348249</v>
       </c>
       <c r="F33" t="n">
-        <v>2.752171125980279</v>
+        <v>0.5519899041808451</v>
       </c>
       <c r="G33" t="n">
-        <v>2.806308891794612</v>
+        <v>0.5571351011067127</v>
       </c>
       <c r="H33" t="n">
-        <v>2.811823024856437</v>
+        <v>0.540522692694928</v>
       </c>
       <c r="I33" t="n">
-        <v>2.833103277802989</v>
+        <v>0.545162718483533</v>
       </c>
       <c r="J33" t="n">
-        <v>2.750600956091668</v>
+        <v>0.5340607328253137</v>
       </c>
     </row>
     <row r="34">
@@ -1580,31 +1580,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.446704080498751</v>
+        <v>0.5440134913725552</v>
       </c>
       <c r="C34" t="n">
-        <v>2.327127887466094</v>
+        <v>0.5241872995810906</v>
       </c>
       <c r="D34" t="n">
-        <v>2.772525424340387</v>
+        <v>0.5934781637704325</v>
       </c>
       <c r="E34" t="n">
-        <v>2.691020039234366</v>
+        <v>0.5851939873544086</v>
       </c>
       <c r="F34" t="n">
-        <v>2.63539681407878</v>
+        <v>0.5879953089288752</v>
       </c>
       <c r="G34" t="n">
-        <v>2.593083711425177</v>
+        <v>0.5854551571957198</v>
       </c>
       <c r="H34" t="n">
-        <v>2.582271509237052</v>
+        <v>0.5827354872297442</v>
       </c>
       <c r="I34" t="n">
-        <v>2.687046902376743</v>
+        <v>0.5987726027383193</v>
       </c>
       <c r="J34" t="n">
-        <v>2.937847721024943</v>
+        <v>0.656307953504157</v>
       </c>
     </row>
     <row r="35">
@@ -1614,31 +1614,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.161604843772752</v>
+        <v>0.5806142734456153</v>
       </c>
       <c r="C35" t="n">
-        <v>4.344059763232058</v>
+        <v>0.6408470430199306</v>
       </c>
       <c r="D35" t="n">
-        <v>4.406612041235309</v>
+        <v>0.6408770579972959</v>
       </c>
       <c r="E35" t="n">
-        <v>4.417889514491348</v>
+        <v>0.6501552753682907</v>
       </c>
       <c r="F35" t="n">
-        <v>4.376104046242036</v>
+        <v>0.650098436353662</v>
       </c>
       <c r="G35" t="n">
-        <v>4.235546498773347</v>
+        <v>0.6256533075286951</v>
       </c>
       <c r="H35" t="n">
-        <v>4.383452886345255</v>
+        <v>0.6506091510912126</v>
       </c>
       <c r="I35" t="n">
-        <v>4.43302879316332</v>
+        <v>0.6463259238379453</v>
       </c>
       <c r="J35" t="n">
-        <v>4.255761806468493</v>
+        <v>0.6358169319024547</v>
       </c>
     </row>
     <row r="36">
@@ -1648,31 +1648,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.322858279599239</v>
+        <v>0.6275046035081926</v>
       </c>
       <c r="C36" t="n">
-        <v>3.482396230887551</v>
+        <v>0.6596427255978229</v>
       </c>
       <c r="D36" t="n">
-        <v>3.423160083671336</v>
+        <v>0.645339223215843</v>
       </c>
       <c r="E36" t="n">
-        <v>3.47674112746599</v>
+        <v>0.6609916267599192</v>
       </c>
       <c r="F36" t="n">
-        <v>3.488091606295524</v>
+        <v>0.6704305740174826</v>
       </c>
       <c r="G36" t="n">
-        <v>3.531596034515118</v>
+        <v>0.6695237225580071</v>
       </c>
       <c r="H36" t="n">
-        <v>3.480200807377297</v>
+        <v>0.6628617507244989</v>
       </c>
       <c r="I36" t="n">
-        <v>3.53951996028744</v>
+        <v>0.6804426918800643</v>
       </c>
       <c r="J36" t="n">
-        <v>3.554828381397</v>
+        <v>0.6906792822041594</v>
       </c>
     </row>
     <row r="37">
@@ -1682,31 +1682,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.279326565162199</v>
+        <v>0.6724537081025725</v>
       </c>
       <c r="C37" t="n">
-        <v>3.359883931770966</v>
+        <v>0.6850658632024548</v>
       </c>
       <c r="D37" t="n">
-        <v>3.712233151485418</v>
+        <v>0.7388486745318232</v>
       </c>
       <c r="E37" t="n">
-        <v>3.324816472660336</v>
+        <v>0.676609528588302</v>
       </c>
       <c r="F37" t="n">
-        <v>3.663215726541838</v>
+        <v>0.7485910711517423</v>
       </c>
       <c r="G37" t="n">
-        <v>3.71955257522467</v>
+        <v>0.7498454030731301</v>
       </c>
       <c r="H37" t="n">
-        <v>3.733434045438648</v>
+        <v>0.7540571893912897</v>
       </c>
       <c r="I37" t="n">
-        <v>3.146005324214187</v>
+        <v>0.6580835424603677</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2708585421211</v>
+        <v>0.6833151333642695</v>
       </c>
     </row>
     <row r="38">
@@ -1716,31 +1716,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.95051811795518</v>
+        <v>0.5091852277388867</v>
       </c>
       <c r="C38" t="n">
-        <v>3.134604631662004</v>
+        <v>0.5452698244317382</v>
       </c>
       <c r="D38" t="n">
-        <v>2.969326414334881</v>
+        <v>0.5291413144545865</v>
       </c>
       <c r="E38" t="n">
-        <v>3.049054334123321</v>
+        <v>0.5528828138235682</v>
       </c>
       <c r="F38" t="n">
-        <v>2.972854894435905</v>
+        <v>0.5478718136329458</v>
       </c>
       <c r="G38" t="n">
-        <v>2.939882053069748</v>
+        <v>0.543140557758889</v>
       </c>
       <c r="H38" t="n">
-        <v>2.315428560369475</v>
+        <v>0.4365781607349797</v>
       </c>
       <c r="I38" t="n">
-        <v>2.73298784880417</v>
+        <v>0.5040601017675966</v>
       </c>
       <c r="J38" t="n">
-        <v>3.051301571764811</v>
+        <v>0.5495896884840994</v>
       </c>
     </row>
     <row r="39">
@@ -1750,31 +1750,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.716140231774122</v>
+        <v>0.3943059766478361</v>
       </c>
       <c r="C39" t="n">
-        <v>2.432505827996718</v>
+        <v>0.3709936434527591</v>
       </c>
       <c r="D39" t="n">
-        <v>2.566221664722629</v>
+        <v>0.3995850013801518</v>
       </c>
       <c r="E39" t="n">
-        <v>2.592883763282535</v>
+        <v>0.4049119393069386</v>
       </c>
       <c r="F39" t="n">
-        <v>2.60444895915135</v>
+        <v>0.4211732994056884</v>
       </c>
       <c r="G39" t="n">
-        <v>2.878103989539054</v>
+        <v>0.4717630444756826</v>
       </c>
       <c r="H39" t="n">
-        <v>2.942363391528699</v>
+        <v>0.4720437302379482</v>
       </c>
       <c r="I39" t="n">
-        <v>2.693560132685288</v>
+        <v>0.4282176998136178</v>
       </c>
       <c r="J39" t="n">
-        <v>2.430773052480117</v>
+        <v>0.3979603832986575</v>
       </c>
     </row>
     <row r="40">
@@ -1784,31 +1784,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.309012135136276</v>
+        <v>0.6150511831941756</v>
       </c>
       <c r="C40" t="n">
-        <v>3.37105521244988</v>
+        <v>0.6627286976441686</v>
       </c>
       <c r="D40" t="n">
-        <v>3.402486249488287</v>
+        <v>0.6614914028629082</v>
       </c>
       <c r="E40" t="n">
-        <v>3.568251203245031</v>
+        <v>0.6952566667964055</v>
       </c>
       <c r="F40" t="n">
-        <v>3.565321077008129</v>
+        <v>0.699802064704093</v>
       </c>
       <c r="G40" t="n">
-        <v>3.616798453311876</v>
+        <v>0.7056088227347328</v>
       </c>
       <c r="H40" t="n">
-        <v>3.61116871917767</v>
+        <v>0.6897402410750662</v>
       </c>
       <c r="I40" t="n">
-        <v>3.671960649887689</v>
+        <v>0.7026970046792378</v>
       </c>
       <c r="J40" t="n">
-        <v>3.638220850609617</v>
+        <v>0.7104920055675527</v>
       </c>
     </row>
     <row r="41">
@@ -1818,31 +1818,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.626362373269322</v>
+        <v>0.6640690655319743</v>
       </c>
       <c r="C41" t="n">
-        <v>3.810317336778709</v>
+        <v>0.7093541846233089</v>
       </c>
       <c r="D41" t="n">
-        <v>3.66995152313216</v>
+        <v>0.6813586553550192</v>
       </c>
       <c r="E41" t="n">
-        <v>3.734268321921852</v>
+        <v>0.7006582866101337</v>
       </c>
       <c r="F41" t="n">
-        <v>3.870469850399882</v>
+        <v>0.7213465197392815</v>
       </c>
       <c r="G41" t="n">
-        <v>3.8701085929924</v>
+        <v>0.7239826586883463</v>
       </c>
       <c r="H41" t="n">
-        <v>3.912736051144269</v>
+        <v>0.7351193081873444</v>
       </c>
       <c r="I41" t="n">
-        <v>3.660864628744819</v>
+        <v>0.7028371776792097</v>
       </c>
       <c r="J41" t="n">
-        <v>4.043118264904684</v>
+        <v>0.7654301050826802</v>
       </c>
     </row>
     <row r="42">
@@ -1852,31 +1852,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.05953166919223</v>
+        <v>0.4438824687539531</v>
       </c>
       <c r="C42" t="n">
-        <v>2.360915378971536</v>
+        <v>0.4867033470746697</v>
       </c>
       <c r="D42" t="n">
-        <v>2.275071453549166</v>
+        <v>0.4848363806358357</v>
       </c>
       <c r="E42" t="n">
-        <v>2.28302597581247</v>
+        <v>0.4836218352972822</v>
       </c>
       <c r="F42" t="n">
-        <v>2.392319223645445</v>
+        <v>0.5002645432422943</v>
       </c>
       <c r="G42" t="n">
-        <v>2.440722693752434</v>
+        <v>0.5174354906049907</v>
       </c>
       <c r="H42" t="n">
-        <v>2.598790492570171</v>
+        <v>0.5497984154283619</v>
       </c>
       <c r="I42" t="n">
-        <v>2.825934238484578</v>
+        <v>0.6022062580509202</v>
       </c>
       <c r="J42" t="n">
-        <v>2.774228568506374</v>
+        <v>0.5951671270091269</v>
       </c>
     </row>
     <row r="43">
@@ -1886,31 +1886,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.444550976068216</v>
+        <v>0.3543906671974974</v>
       </c>
       <c r="C43" t="n">
-        <v>2.445093497214629</v>
+        <v>0.382294042310141</v>
       </c>
       <c r="D43" t="n">
-        <v>2.40154160375941</v>
+        <v>0.3752058092155253</v>
       </c>
       <c r="E43" t="n">
-        <v>2.289320839548653</v>
+        <v>0.3618549463653373</v>
       </c>
       <c r="F43" t="n">
-        <v>2.38766745505147</v>
+        <v>0.3613463662579201</v>
       </c>
       <c r="G43" t="n">
-        <v>2.326623091318074</v>
+        <v>0.3448993736224227</v>
       </c>
       <c r="H43" t="n">
-        <v>2.451132715151025</v>
+        <v>0.3339429946127129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.535699857282435</v>
+        <v>0.3326365379789769</v>
       </c>
       <c r="J43" t="n">
-        <v>2.484008031112014</v>
+        <v>0.3295927363681312</v>
       </c>
     </row>
     <row r="44">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.44130690256101</v>
+        <v>0.5998378134041453</v>
       </c>
       <c r="C44" t="n">
-        <v>2.824456482152216</v>
+        <v>0.5402723993771076</v>
       </c>
       <c r="D44" t="n">
-        <v>2.733594146581648</v>
+        <v>0.5232541028215494</v>
       </c>
       <c r="E44" t="n">
-        <v>3.11985701028247</v>
+        <v>0.5833540375136765</v>
       </c>
       <c r="F44" t="n">
-        <v>2.875020626855656</v>
+        <v>0.5563159707213351</v>
       </c>
       <c r="G44" t="n">
-        <v>2.804352322514521</v>
+        <v>0.5455400204354186</v>
       </c>
       <c r="H44" t="n">
-        <v>2.89398166862402</v>
+        <v>0.5510171467908721</v>
       </c>
       <c r="I44" t="n">
-        <v>3.045745512445997</v>
+        <v>0.5753580194825441</v>
       </c>
       <c r="J44" t="n">
-        <v>3.036605423090927</v>
+        <v>0.5754557425581651</v>
       </c>
     </row>
     <row r="45">
@@ -1954,31 +1954,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.702024381223867</v>
+        <v>0.6759415289495967</v>
       </c>
       <c r="C45" t="n">
-        <v>3.588765525030813</v>
+        <v>0.6635672603067717</v>
       </c>
       <c r="D45" t="n">
-        <v>3.655336237232363</v>
+        <v>0.6755144580799678</v>
       </c>
       <c r="E45" t="n">
-        <v>2.869528376854226</v>
+        <v>0.5489981347514837</v>
       </c>
       <c r="F45" t="n">
-        <v>3.406705385612035</v>
+        <v>0.6391375748005312</v>
       </c>
       <c r="G45" t="n">
-        <v>3.032484529948313</v>
+        <v>0.5814389127571864</v>
       </c>
       <c r="H45" t="n">
-        <v>2.9918610160516</v>
+        <v>0.5717074757392397</v>
       </c>
       <c r="I45" t="n">
-        <v>3.202496128391274</v>
+        <v>0.604196090127068</v>
       </c>
       <c r="J45" t="n">
-        <v>3.275405494842248</v>
+        <v>0.6127467939432419</v>
       </c>
     </row>
     <row r="46">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.898628941279076</v>
+        <v>0.5092070187134561</v>
       </c>
       <c r="C46" t="n">
-        <v>2.762257541762355</v>
+        <v>0.5016168840905902</v>
       </c>
       <c r="D46" t="n">
-        <v>2.835220393394165</v>
+        <v>0.5323526831526063</v>
       </c>
       <c r="E46" t="n">
-        <v>2.944178093509149</v>
+        <v>0.5336905250058928</v>
       </c>
       <c r="F46" t="n">
-        <v>2.988994515133383</v>
+        <v>0.5430139182234769</v>
       </c>
       <c r="G46" t="n">
-        <v>2.881925297766754</v>
+        <v>0.5210688823078511</v>
       </c>
       <c r="H46" t="n">
-        <v>2.973085263827333</v>
+        <v>0.531709496833175</v>
       </c>
       <c r="I46" t="n">
-        <v>2.9749327572187</v>
+        <v>0.5279255807156868</v>
       </c>
       <c r="J46" t="n">
-        <v>2.858331955808885</v>
+        <v>0.5134854334950292</v>
       </c>
     </row>
     <row r="47">
@@ -2022,31 +2022,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.190364745465692</v>
+        <v>0.682160956931978</v>
       </c>
       <c r="C47" t="n">
-        <v>3.443423342962373</v>
+        <v>0.7238698073308114</v>
       </c>
       <c r="D47" t="n">
-        <v>3.164309970476082</v>
+        <v>0.6768396644726665</v>
       </c>
       <c r="E47" t="n">
-        <v>3.186193954735165</v>
+        <v>0.6889631240077621</v>
       </c>
       <c r="F47" t="n">
-        <v>3.0565558875255</v>
+        <v>0.6718799043716801</v>
       </c>
       <c r="G47" t="n">
-        <v>2.91696561163205</v>
+        <v>0.652827601938675</v>
       </c>
       <c r="H47" t="n">
-        <v>2.78239364018201</v>
+        <v>0.630398940030335</v>
       </c>
       <c r="I47" t="n">
-        <v>3.098394644692289</v>
+        <v>0.6796293479985429</v>
       </c>
       <c r="J47" t="n">
-        <v>3.057267279292649</v>
+        <v>0.6733438297028965</v>
       </c>
     </row>
     <row r="48">
@@ -2056,31 +2056,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.759268199025958</v>
+        <v>0.7227446629440974</v>
       </c>
       <c r="C48" t="n">
-        <v>3.968130367667206</v>
+        <v>0.7736590830910919</v>
       </c>
       <c r="D48" t="n">
-        <v>4.104255676028739</v>
+        <v>0.7999253665910202</v>
       </c>
       <c r="E48" t="n">
-        <v>4.053593917179686</v>
+        <v>0.8009843921575599</v>
       </c>
       <c r="F48" t="n">
-        <v>3.845076657315796</v>
+        <v>0.7674917125015531</v>
       </c>
       <c r="G48" t="n">
-        <v>3.848075926549348</v>
+        <v>0.7653864907796193</v>
       </c>
       <c r="H48" t="n">
-        <v>3.806315149390121</v>
+        <v>0.7534094272552557</v>
       </c>
       <c r="I48" t="n">
-        <v>3.812655527869593</v>
+        <v>0.7539992890091933</v>
       </c>
       <c r="J48" t="n">
-        <v>4.019941664040518</v>
+        <v>0.7981264780569322</v>
       </c>
     </row>
     <row r="49">
@@ -2090,31 +2090,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.66916733908511</v>
+        <v>0.4842451006942255</v>
       </c>
       <c r="C49" t="n">
-        <v>2.509817589980189</v>
+        <v>0.4501706889912448</v>
       </c>
       <c r="D49" t="n">
-        <v>2.630419742793964</v>
+        <v>0.4639656626537997</v>
       </c>
       <c r="E49" t="n">
-        <v>2.41840374179862</v>
+        <v>0.4525705448389958</v>
       </c>
       <c r="F49" t="n">
-        <v>2.49459671901777</v>
+        <v>0.4757099499223051</v>
       </c>
       <c r="G49" t="n">
-        <v>2.6952556243983</v>
+        <v>0.5089022316998962</v>
       </c>
       <c r="H49" t="n">
-        <v>2.560417461901209</v>
+        <v>0.4826284995424573</v>
       </c>
       <c r="I49" t="n">
-        <v>2.612078936822188</v>
+        <v>0.4788444095282414</v>
       </c>
       <c r="J49" t="n">
-        <v>2.659252591079638</v>
+        <v>0.4828144999469647</v>
       </c>
     </row>
     <row r="50">
@@ -2124,31 +2124,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.621475476208637</v>
+        <v>0.4344222639281504</v>
       </c>
       <c r="C50" t="n">
-        <v>2.79105439750406</v>
+        <v>0.4784681664551756</v>
       </c>
       <c r="D50" t="n">
-        <v>2.77156408557855</v>
+        <v>0.4709593857695674</v>
       </c>
       <c r="E50" t="n">
-        <v>2.60540640013674</v>
+        <v>0.4529051776863733</v>
       </c>
       <c r="F50" t="n">
-        <v>2.797072254185495</v>
+        <v>0.492947183666689</v>
       </c>
       <c r="G50" t="n">
-        <v>2.742550381893243</v>
+        <v>0.4797113612154262</v>
       </c>
       <c r="H50" t="n">
-        <v>2.481005865807966</v>
+        <v>0.4278107419444253</v>
       </c>
       <c r="I50" t="n">
-        <v>2.642028755309942</v>
+        <v>0.4662921862937441</v>
       </c>
       <c r="J50" t="n">
-        <v>2.389789207747751</v>
+        <v>0.4244630758432631</v>
       </c>
     </row>
     <row r="51">
@@ -2158,31 +2158,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.624127190401132</v>
+        <v>0.4562624822961489</v>
       </c>
       <c r="C51" t="n">
-        <v>2.657920817628944</v>
+        <v>0.4700829174575848</v>
       </c>
       <c r="D51" t="n">
-        <v>2.760484513025848</v>
+        <v>0.479678570848548</v>
       </c>
       <c r="E51" t="n">
-        <v>2.573298326575461</v>
+        <v>0.4564609920791234</v>
       </c>
       <c r="F51" t="n">
-        <v>2.300234269701675</v>
+        <v>0.4194439949239494</v>
       </c>
       <c r="G51" t="n">
-        <v>2.559983350233446</v>
+        <v>0.4665952978790188</v>
       </c>
       <c r="H51" t="n">
-        <v>2.488583054343279</v>
+        <v>0.4464136740403781</v>
       </c>
       <c r="I51" t="n">
-        <v>2.294576679116788</v>
+        <v>0.4027767064217977</v>
       </c>
       <c r="J51" t="n">
-        <v>2.434558575189855</v>
+        <v>0.4200966800943665</v>
       </c>
     </row>
     <row r="52">
@@ -2192,31 +2192,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.301442557714518</v>
+        <v>0.353597740434434</v>
       </c>
       <c r="C52" t="n">
-        <v>2.53763110768223</v>
+        <v>0.3914115922483336</v>
       </c>
       <c r="D52" t="n">
-        <v>2.590955550356593</v>
+        <v>0.4004694151753149</v>
       </c>
       <c r="E52" t="n">
-        <v>2.64894757330447</v>
+        <v>0.4120291176473533</v>
       </c>
       <c r="F52" t="n">
-        <v>2.677994967071208</v>
+        <v>0.4099098159090946</v>
       </c>
       <c r="G52" t="n">
-        <v>2.596755720400722</v>
+        <v>0.3948210375092172</v>
       </c>
       <c r="H52" t="n">
-        <v>2.476345190489367</v>
+        <v>0.391175376866073</v>
       </c>
       <c r="I52" t="n">
-        <v>2.498272885635461</v>
+        <v>0.4027235420714556</v>
       </c>
       <c r="J52" t="n">
-        <v>2.436065693665912</v>
+        <v>0.3904195510948562</v>
       </c>
     </row>
     <row r="53">
@@ -2226,31 +2226,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.561508042572649</v>
+        <v>0.7067556754223185</v>
       </c>
       <c r="C53" t="n">
-        <v>3.555864070068314</v>
+        <v>0.7105717553726671</v>
       </c>
       <c r="D53" t="n">
-        <v>3.617291666734704</v>
+        <v>0.7216617672233367</v>
       </c>
       <c r="E53" t="n">
-        <v>3.673599237349712</v>
+        <v>0.7335409486024784</v>
       </c>
       <c r="F53" t="n">
-        <v>3.444353524279061</v>
+        <v>0.6815716467093152</v>
       </c>
       <c r="G53" t="n">
-        <v>3.267245629512598</v>
+        <v>0.6452268765176556</v>
       </c>
       <c r="H53" t="n">
-        <v>3.703558007433413</v>
+        <v>0.7194482200941209</v>
       </c>
       <c r="I53" t="n">
-        <v>3.368628412831128</v>
+        <v>0.6640786909791797</v>
       </c>
       <c r="J53" t="n">
-        <v>3.594658688743992</v>
+        <v>0.7281420395218481</v>
       </c>
     </row>
     <row r="54">
@@ -2260,31 +2260,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.498593966735475</v>
+        <v>0.6968233995472239</v>
       </c>
       <c r="C54" t="n">
-        <v>3.671964133568866</v>
+        <v>0.7389538041292349</v>
       </c>
       <c r="D54" t="n">
-        <v>3.661960755676083</v>
+        <v>0.745977781024405</v>
       </c>
       <c r="E54" t="n">
-        <v>3.695919942485268</v>
+        <v>0.7720332483792677</v>
       </c>
       <c r="F54" t="n">
-        <v>3.497854061942617</v>
+        <v>0.7496423436571028</v>
       </c>
       <c r="G54" t="n">
-        <v>3.615106722289405</v>
+        <v>0.7606918847127777</v>
       </c>
       <c r="H54" t="n">
-        <v>3.585226136895385</v>
+        <v>0.75342994537482</v>
       </c>
       <c r="I54" t="n">
-        <v>3.807639337085988</v>
+        <v>0.7915065380945447</v>
       </c>
       <c r="J54" t="n">
-        <v>3.770433491930279</v>
+        <v>0.78682852105648</v>
       </c>
     </row>
     <row r="55">
@@ -2294,31 +2294,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.472307894772482</v>
+        <v>0.6815587867417336</v>
       </c>
       <c r="C55" t="n">
-        <v>3.597552078896384</v>
+        <v>0.7084877186708698</v>
       </c>
       <c r="D55" t="n">
-        <v>3.574663382120997</v>
+        <v>0.7046729358749718</v>
       </c>
       <c r="E55" t="n">
-        <v>3.683673738812725</v>
+        <v>0.7177482952834501</v>
       </c>
       <c r="F55" t="n">
-        <v>3.717322540239464</v>
+        <v>0.7353164388199703</v>
       </c>
       <c r="G55" t="n">
-        <v>3.649921061388654</v>
+        <v>0.7281143954184421</v>
       </c>
       <c r="H55" t="n">
-        <v>3.667579676953228</v>
+        <v>0.7259097441386692</v>
       </c>
       <c r="I55" t="n">
-        <v>3.706998742742662</v>
+        <v>0.740007115470675</v>
       </c>
       <c r="J55" t="n">
-        <v>3.714276961030595</v>
+        <v>0.7358920383079666</v>
       </c>
     </row>
     <row r="56">
@@ -2328,31 +2328,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.449054982727336</v>
+        <v>0.408175830454556</v>
       </c>
       <c r="C56" t="n">
-        <v>3.533289776686551</v>
+        <v>0.4222149627810917</v>
       </c>
       <c r="D56" t="n">
-        <v>3.666442745290637</v>
+        <v>0.4444071242151061</v>
       </c>
       <c r="E56" t="n">
-        <v>4.184556531185675</v>
+        <v>0.530759421864279</v>
       </c>
       <c r="F56" t="n">
-        <v>4.213072919167913</v>
+        <v>0.5355121531946521</v>
       </c>
       <c r="G56" t="n">
-        <v>4.161243148413576</v>
+        <v>0.5268738580689294</v>
       </c>
       <c r="H56" t="n">
-        <v>4.186233248288938</v>
+        <v>0.5310388747148229</v>
       </c>
       <c r="I56" t="n">
-        <v>4.130503965454706</v>
+        <v>0.5217506609091177</v>
       </c>
       <c r="J56" t="n">
-        <v>4.378047378346853</v>
+        <v>0.5630078963911421</v>
       </c>
     </row>
     <row r="57">
@@ -2362,31 +2362,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.533380943065791</v>
+        <v>0.5875133152665453</v>
       </c>
       <c r="C57" t="n">
-        <v>3.830007192723307</v>
+        <v>0.661511082904464</v>
       </c>
       <c r="D57" t="n">
-        <v>3.909154216628207</v>
+        <v>0.6697601949322403</v>
       </c>
       <c r="E57" t="n">
-        <v>4.194707531470684</v>
+        <v>0.6869562226997216</v>
       </c>
       <c r="F57" t="n">
-        <v>4.166992216430372</v>
+        <v>0.6564962453046582</v>
       </c>
       <c r="G57" t="n">
-        <v>3.936256394913267</v>
+        <v>0.6201942921785053</v>
       </c>
       <c r="H57" t="n">
-        <v>3.973077157686445</v>
+        <v>0.6308663949679428</v>
       </c>
       <c r="I57" t="n">
-        <v>4.15028232122347</v>
+        <v>0.6606954528861326</v>
       </c>
       <c r="J57" t="n">
-        <v>4.095004817358164</v>
+        <v>0.649525892498762</v>
       </c>
     </row>
     <row r="58">
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.538691156354647</v>
+        <v>0.604815985937359</v>
       </c>
       <c r="C58" t="n">
-        <v>3.679420248593458</v>
+        <v>0.6587377305937971</v>
       </c>
       <c r="D58" t="n">
-        <v>3.404305536868635</v>
+        <v>0.6239623065878536</v>
       </c>
       <c r="E58" t="n">
-        <v>3.46736282389722</v>
+        <v>0.641614256192531</v>
       </c>
       <c r="F58" t="n">
-        <v>3.608715508466906</v>
+        <v>0.6670134062294764</v>
       </c>
       <c r="G58" t="n">
-        <v>3.16934633475024</v>
+        <v>0.59379682093951</v>
       </c>
       <c r="H58" t="n">
-        <v>3.442813975839151</v>
+        <v>0.6438359993401952</v>
       </c>
       <c r="I58" t="n">
-        <v>3.462674362689889</v>
+        <v>0.6390584961509738</v>
       </c>
       <c r="J58" t="n">
-        <v>3.541100955657698</v>
+        <v>0.6548788331114084</v>
       </c>
     </row>
     <row r="59">
@@ -2430,31 +2430,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.971591632409544</v>
+        <v>0.7843263309134888</v>
       </c>
       <c r="C59" t="n">
-        <v>3.893641720859973</v>
+        <v>0.7784563058965667</v>
       </c>
       <c r="D59" t="n">
-        <v>4.167351380313668</v>
+        <v>0.8341291155328505</v>
       </c>
       <c r="E59" t="n">
-        <v>3.815414781153936</v>
+        <v>0.7739634433132545</v>
       </c>
       <c r="F59" t="n">
-        <v>4.00994387344662</v>
+        <v>0.8112939631099814</v>
       </c>
       <c r="G59" t="n">
-        <v>4.052068889034964</v>
+        <v>0.8139206763449585</v>
       </c>
       <c r="H59" t="n">
-        <v>3.339662078832104</v>
+        <v>0.6988662387279096</v>
       </c>
       <c r="I59" t="n">
-        <v>3.718912606908373</v>
+        <v>0.7776230723939347</v>
       </c>
       <c r="J59" t="n">
-        <v>3.655154681322652</v>
+        <v>0.7654648483208004</v>
       </c>
     </row>
     <row r="60">
@@ -2464,31 +2464,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.111159913387235</v>
+        <v>0.6121440659925045</v>
       </c>
       <c r="C60" t="n">
-        <v>3.403335710448959</v>
+        <v>0.677481650446333</v>
       </c>
       <c r="D60" t="n">
-        <v>3.274924054424038</v>
+        <v>0.65556846033175</v>
       </c>
       <c r="E60" t="n">
-        <v>3.247458183946882</v>
+        <v>0.6457308689586017</v>
       </c>
       <c r="F60" t="n">
-        <v>3.168729568607192</v>
+        <v>0.6347566658579127</v>
       </c>
       <c r="G60" t="n">
-        <v>3.208635321407946</v>
+        <v>0.651463718029856</v>
       </c>
       <c r="H60" t="n">
-        <v>3.066364365639438</v>
+        <v>0.6181314346772802</v>
       </c>
       <c r="I60" t="n">
-        <v>3.315231046263517</v>
+        <v>0.66223284665072</v>
       </c>
       <c r="J60" t="n">
-        <v>3.554305342267956</v>
+        <v>0.7112014280124012</v>
       </c>
     </row>
     <row r="61">
@@ -2498,31 +2498,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.667165273879403</v>
+        <v>0.7426275271997862</v>
       </c>
       <c r="C61" t="n">
-        <v>3.586489592148783</v>
+        <v>0.7306726007364536</v>
       </c>
       <c r="D61" t="n">
-        <v>3.25505987849951</v>
+        <v>0.6773088890887049</v>
       </c>
       <c r="E61" t="n">
-        <v>3.629530820724386</v>
+        <v>0.7481215293876031</v>
       </c>
       <c r="F61" t="n">
-        <v>3.725295846538229</v>
+        <v>0.7738578912213531</v>
       </c>
       <c r="G61" t="n">
-        <v>3.640497189125093</v>
+        <v>0.7549611924713633</v>
       </c>
       <c r="H61" t="n">
-        <v>3.648872827539567</v>
+        <v>0.7571353702464936</v>
       </c>
       <c r="I61" t="n">
-        <v>3.699825909609181</v>
+        <v>0.776612330566985</v>
       </c>
       <c r="J61" t="n">
-        <v>3.695925994839926</v>
+        <v>0.7787116801435719</v>
       </c>
     </row>
     <row r="62">
@@ -2532,31 +2532,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.409617934943824</v>
+        <v>0.343956798417588</v>
       </c>
       <c r="C62" t="n">
-        <v>2.322923014137101</v>
+        <v>0.3442090504134431</v>
       </c>
       <c r="D62" t="n">
-        <v>2.358246180422165</v>
+        <v>0.3366333954418674</v>
       </c>
       <c r="E62" t="n">
-        <v>2.349050106485895</v>
+        <v>0.3558797111357958</v>
       </c>
       <c r="F62" t="n">
-        <v>2.424626682693322</v>
+        <v>0.3669796445879075</v>
       </c>
       <c r="G62" t="n">
-        <v>2.399158668080502</v>
+        <v>0.3703807644579702</v>
       </c>
       <c r="H62" t="n">
-        <v>2.422934512506878</v>
+        <v>0.3410278059565335</v>
       </c>
       <c r="I62" t="n">
-        <v>2.434845444166066</v>
+        <v>0.3541707500088678</v>
       </c>
       <c r="J62" t="n">
-        <v>2.384976063455377</v>
+        <v>0.3444494155938174</v>
       </c>
     </row>
     <row r="63">
@@ -2566,31 +2566,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.991875006876008</v>
+        <v>0.5941079263443043</v>
       </c>
       <c r="C63" t="n">
-        <v>3.44773271329193</v>
+        <v>0.6790870132241831</v>
       </c>
       <c r="D63" t="n">
-        <v>3.565262980046303</v>
+        <v>0.7065145184876082</v>
       </c>
       <c r="E63" t="n">
-        <v>3.480716917507465</v>
+        <v>0.6916302776181507</v>
       </c>
       <c r="F63" t="n">
-        <v>3.473581992165319</v>
+        <v>0.7018897843708917</v>
       </c>
       <c r="G63" t="n">
-        <v>3.360554937859434</v>
+        <v>0.6506526725601098</v>
       </c>
       <c r="H63" t="n">
-        <v>3.469636338052659</v>
+        <v>0.6681717129077661</v>
       </c>
       <c r="I63" t="n">
-        <v>3.55767622863471</v>
+        <v>0.6888946725785647</v>
       </c>
       <c r="J63" t="n">
-        <v>3.508010871855867</v>
+        <v>0.6902240341982</v>
       </c>
     </row>
     <row r="64">
@@ -2600,31 +2600,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.865987927390227</v>
+        <v>0.7678325202724718</v>
       </c>
       <c r="C64" t="n">
-        <v>3.846865738053301</v>
+        <v>0.7689561506162454</v>
       </c>
       <c r="D64" t="n">
-        <v>3.849111071757019</v>
+        <v>0.7684782938272605</v>
       </c>
       <c r="E64" t="n">
-        <v>3.792694786621184</v>
+        <v>0.756987329116549</v>
       </c>
       <c r="F64" t="n">
-        <v>3.758948176024973</v>
+        <v>0.7396210800659488</v>
       </c>
       <c r="G64" t="n">
-        <v>3.682058460576542</v>
+        <v>0.7271012018648311</v>
       </c>
       <c r="H64" t="n">
-        <v>3.665409367108332</v>
+        <v>0.724032874316035</v>
       </c>
       <c r="I64" t="n">
-        <v>3.693412812056361</v>
+        <v>0.7294230251962265</v>
       </c>
       <c r="J64" t="n">
-        <v>3.693191673279226</v>
+        <v>0.7341699383780789</v>
       </c>
     </row>
     <row r="65">
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.427171184507872</v>
+        <v>0.7065023363222398</v>
       </c>
       <c r="C65" t="n">
-        <v>3.744975844156888</v>
+        <v>0.76117695562124</v>
       </c>
       <c r="D65" t="n">
-        <v>3.264291731509997</v>
+        <v>0.6788475312571194</v>
       </c>
       <c r="E65" t="n">
-        <v>3.536018172748779</v>
+        <v>0.7351054611313057</v>
       </c>
       <c r="F65" t="n">
-        <v>3.735917967347153</v>
+        <v>0.7717665631027069</v>
       </c>
       <c r="G65" t="n">
-        <v>3.699647699779442</v>
+        <v>0.7568169978156003</v>
       </c>
       <c r="H65" t="n">
-        <v>3.584634588544221</v>
+        <v>0.7383481889997944</v>
       </c>
       <c r="I65" t="n">
-        <v>3.600804876303851</v>
+        <v>0.7382242165878096</v>
       </c>
       <c r="J65" t="n">
-        <v>3.932022023824489</v>
+        <v>0.8035448892754075</v>
       </c>
     </row>
     <row r="66">
@@ -2668,31 +2668,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.080864942615663</v>
+        <v>0.6538574941253001</v>
       </c>
       <c r="C66" t="n">
-        <v>4.155548706979807</v>
+        <v>0.6683924054918626</v>
       </c>
       <c r="D66" t="n">
-        <v>4.06926092706489</v>
+        <v>0.6611685730520555</v>
       </c>
       <c r="E66" t="n">
-        <v>3.450429445970407</v>
+        <v>0.5834648597001035</v>
       </c>
       <c r="F66" t="n">
-        <v>3.719654704837774</v>
+        <v>0.6267003935831958</v>
       </c>
       <c r="G66" t="n">
-        <v>3.714483170980073</v>
+        <v>0.632227678586504</v>
       </c>
       <c r="H66" t="n">
-        <v>3.716497017739053</v>
+        <v>0.6256451258521317</v>
       </c>
       <c r="I66" t="n">
-        <v>3.846620647109293</v>
+        <v>0.6406512798537192</v>
       </c>
       <c r="J66" t="n">
-        <v>3.780368497145718</v>
+        <v>0.6390219896676554</v>
       </c>
     </row>
     <row r="67">
@@ -2702,31 +2702,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.344443758175236</v>
+        <v>0.5787133251266049</v>
       </c>
       <c r="C67" t="n">
-        <v>3.462409744710104</v>
+        <v>0.5946211196875394</v>
       </c>
       <c r="D67" t="n">
-        <v>3.658385049223427</v>
+        <v>0.644836499342282</v>
       </c>
       <c r="E67" t="n">
-        <v>3.663413529360207</v>
+        <v>0.655961179182508</v>
       </c>
       <c r="F67" t="n">
-        <v>3.683340713069232</v>
+        <v>0.6604935943583</v>
       </c>
       <c r="G67" t="n">
-        <v>3.611934963647998</v>
+        <v>0.6502498171489109</v>
       </c>
       <c r="H67" t="n">
-        <v>3.253226352551235</v>
+        <v>0.5809249308124113</v>
       </c>
       <c r="I67" t="n">
-        <v>3.311159922333218</v>
+        <v>0.5817930671785242</v>
       </c>
       <c r="J67" t="n">
-        <v>3.62274896936274</v>
+        <v>0.6338990217755105</v>
       </c>
     </row>
     <row r="68">
@@ -2736,31 +2736,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.794316532901944</v>
+        <v>0.6341385330154781</v>
       </c>
       <c r="C68" t="n">
-        <v>3.898499207154286</v>
+        <v>0.6768459823784749</v>
       </c>
       <c r="D68" t="n">
-        <v>3.881632515373393</v>
+        <v>0.6762502726712983</v>
       </c>
       <c r="E68" t="n">
-        <v>3.891064974658794</v>
+        <v>0.6776303906034611</v>
       </c>
       <c r="F68" t="n">
-        <v>3.918957780067575</v>
+        <v>0.677470670909981</v>
       </c>
       <c r="G68" t="n">
-        <v>3.871488787216236</v>
+        <v>0.6698275857184663</v>
       </c>
       <c r="H68" t="n">
-        <v>3.902403536339578</v>
+        <v>0.6709393099286501</v>
       </c>
       <c r="I68" t="n">
-        <v>3.965750035016104</v>
+        <v>0.6742518823055417</v>
       </c>
       <c r="J68" t="n">
-        <v>3.934497450623142</v>
+        <v>0.6828105070034984</v>
       </c>
     </row>
     <row r="69">
@@ -2770,31 +2770,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.918450478121575</v>
+        <v>0.2956686971006904</v>
       </c>
       <c r="C69" t="n">
-        <v>1.886691970002328</v>
+        <v>0.3001337332416967</v>
       </c>
       <c r="D69" t="n">
-        <v>1.995534904000266</v>
+        <v>0.3158884008371269</v>
       </c>
       <c r="E69" t="n">
-        <v>1.952669902476198</v>
+        <v>0.3286995229717952</v>
       </c>
       <c r="F69" t="n">
-        <v>1.957152860553284</v>
+        <v>0.3131150853247926</v>
       </c>
       <c r="G69" t="n">
-        <v>1.823223723598212</v>
+        <v>0.3103217066686225</v>
       </c>
       <c r="H69" t="n">
-        <v>1.963060470230088</v>
+        <v>0.3138770817386847</v>
       </c>
       <c r="I69" t="n">
-        <v>2.049464990720929</v>
+        <v>0.3058567532916144</v>
       </c>
       <c r="J69" t="n">
-        <v>2.047816935045848</v>
+        <v>0.3092239694610463</v>
       </c>
     </row>
     <row r="70">
@@ -2804,31 +2804,31 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.361733109278712</v>
+        <v>0.5454391928119012</v>
       </c>
       <c r="C70" t="n">
-        <v>3.47376184020505</v>
+        <v>0.5159064553034322</v>
       </c>
       <c r="D70" t="n">
-        <v>3.805512781179766</v>
+        <v>0.5018390422620672</v>
       </c>
       <c r="E70" t="n">
-        <v>4.033670777047708</v>
+        <v>0.5256529061437853</v>
       </c>
       <c r="F70" t="n">
-        <v>3.84568706902849</v>
+        <v>0.5120203391333247</v>
       </c>
       <c r="G70" t="n">
-        <v>3.947995898674602</v>
+        <v>0.5542103241217429</v>
       </c>
       <c r="H70" t="n">
-        <v>3.964599031816299</v>
+        <v>0.5609348554710667</v>
       </c>
       <c r="I70" t="n">
-        <v>4.049979601217519</v>
+        <v>0.5799522883924658</v>
       </c>
       <c r="J70" t="n">
-        <v>3.895969548259654</v>
+        <v>0.5932350680791179</v>
       </c>
     </row>
     <row r="71">
@@ -2838,31 +2838,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.667741900327494</v>
+        <v>0.6960532755849272</v>
       </c>
       <c r="C71" t="n">
-        <v>3.754397347921802</v>
+        <v>0.6981596125200276</v>
       </c>
       <c r="D71" t="n">
-        <v>3.674566785955545</v>
+        <v>0.6797420444213571</v>
       </c>
       <c r="E71" t="n">
-        <v>3.711556241362909</v>
+        <v>0.684711240638251</v>
       </c>
       <c r="F71" t="n">
-        <v>3.788990149107026</v>
+        <v>0.6831922321532599</v>
       </c>
       <c r="G71" t="n">
-        <v>3.874290287521481</v>
+        <v>0.7036115039058747</v>
       </c>
       <c r="H71" t="n">
-        <v>3.961598735717376</v>
+        <v>0.7138018094882497</v>
       </c>
       <c r="I71" t="n">
-        <v>4.097347926327153</v>
+        <v>0.7046854972165802</v>
       </c>
       <c r="J71" t="n">
-        <v>4.297344307200828</v>
+        <v>0.7468692124904605</v>
       </c>
     </row>
     <row r="72">
@@ -2872,31 +2872,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3.662995157462976</v>
+        <v>0.577018285328869</v>
       </c>
       <c r="C72" t="n">
-        <v>3.687384363039075</v>
+        <v>0.5922395887955377</v>
       </c>
       <c r="D72" t="n">
-        <v>3.636519710053346</v>
+        <v>0.5808650777832604</v>
       </c>
       <c r="E72" t="n">
-        <v>3.707053551339301</v>
+        <v>0.5935188601324322</v>
       </c>
       <c r="F72" t="n">
-        <v>3.713362230919705</v>
+        <v>0.5896677967804562</v>
       </c>
       <c r="G72" t="n">
-        <v>3.684382646173275</v>
+        <v>0.5800118390363918</v>
       </c>
       <c r="H72" t="n">
-        <v>3.73465382153737</v>
+        <v>0.5753042564515145</v>
       </c>
       <c r="I72" t="n">
-        <v>3.80899678290981</v>
+        <v>0.5788552243536607</v>
       </c>
       <c r="J72" t="n">
-        <v>3.845703982685854</v>
+        <v>0.5748216315229113</v>
       </c>
     </row>
     <row r="73">
@@ -2906,31 +2906,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3.223933569079324</v>
+        <v>0.6233764950494687</v>
       </c>
       <c r="C73" t="n">
-        <v>3.330817740276196</v>
+        <v>0.6330163173125629</v>
       </c>
       <c r="D73" t="n">
-        <v>3.395322781350735</v>
+        <v>0.6446192365645907</v>
       </c>
       <c r="E73" t="n">
-        <v>3.319563604973337</v>
+        <v>0.6366795799313216</v>
       </c>
       <c r="F73" t="n">
-        <v>3.292055310211193</v>
+        <v>0.6395131678156096</v>
       </c>
       <c r="G73" t="n">
-        <v>3.013665313207125</v>
+        <v>0.5859783524624973</v>
       </c>
       <c r="H73" t="n">
-        <v>3.100168015906077</v>
+        <v>0.5934623460853564</v>
       </c>
       <c r="I73" t="n">
-        <v>3.250257429664372</v>
+        <v>0.6060069129021014</v>
       </c>
       <c r="J73" t="n">
-        <v>3.336553686790259</v>
+        <v>0.6173826037123549</v>
       </c>
     </row>
   </sheetData>
